--- a/tmp_budget/201603_runrate_budgets.xlsx
+++ b/tmp_budget/201603_runrate_budgets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Other Non-Core</t>
+  </si>
+  <si>
+    <t>PAYROLL Acquisitions</t>
+  </si>
+  <si>
+    <t>LOANS Acquisitions</t>
+  </si>
+  <si>
+    <t>ALLOWANCE Acquisitions</t>
+  </si>
+  <si>
+    <t>NORMANDY Acquisitions</t>
+  </si>
+  <si>
+    <t>Non-Normandy Activations</t>
+  </si>
+  <si>
+    <t>GLOBE CHARGE Dongles</t>
   </si>
 </sst>
 </file>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,22 +618,22 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -644,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -659,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -703,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
@@ -5376,6 +5394,280 @@
         <v>0</v>
       </c>
       <c r="N119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>109</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="4">
+        <v>10</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <v>0</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0</v>
+      </c>
+      <c r="K124" s="4">
+        <v>0</v>
+      </c>
+      <c r="L124" s="4">
+        <v>0</v>
+      </c>
+      <c r="M124" s="4">
+        <v>0</v>
+      </c>
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>110</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="4">
+        <v>0</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>0</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <v>0</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0</v>
+      </c>
+      <c r="K125" s="4">
+        <v>0</v>
+      </c>
+      <c r="L125" s="4">
+        <v>0</v>
+      </c>
+      <c r="M125" s="4">
+        <v>0</v>
+      </c>
+      <c r="N125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>111</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" s="4">
+        <v>0</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>0</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4">
+        <v>0</v>
+      </c>
+      <c r="L126" s="4">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4">
+        <v>0</v>
+      </c>
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>112</v>
+      </c>
+      <c r="B127" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="4">
+        <v>0</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>0</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>0</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0</v>
+      </c>
+      <c r="K127" s="4">
+        <v>0</v>
+      </c>
+      <c r="L127" s="4">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4">
+        <v>0</v>
+      </c>
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>113</v>
+      </c>
+      <c r="B128" t="s">
+        <v>56</v>
+      </c>
+      <c r="C128" s="4">
+        <v>0</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4">
+        <v>0</v>
+      </c>
+      <c r="L128" s="4">
+        <v>0</v>
+      </c>
+      <c r="M128" s="4">
+        <v>0</v>
+      </c>
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>114</v>
+      </c>
+      <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" s="4">
+        <v>0</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>0</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>0</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0</v>
+      </c>
+      <c r="K130" s="4">
+        <v>0</v>
+      </c>
+      <c r="L130" s="4">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4">
+        <v>0</v>
+      </c>
+      <c r="N130" s="4">
         <v>0</v>
       </c>
     </row>

--- a/tmp_budget/201603_runrate_budgets.xlsx
+++ b/tmp_budget/201603_runrate_budgets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>GLOBE CHARGE Dongles</t>
+  </si>
+  <si>
+    <t>POWERPAY+</t>
+  </si>
+  <si>
+    <t>PAYROLL Active Subs</t>
+  </si>
+  <si>
+    <t>LOANS Active Subs</t>
+  </si>
+  <si>
+    <t>ALLOWANCE Active Subs</t>
+  </si>
+  <si>
+    <t>REGULAR Active Subs</t>
   </si>
 </sst>
 </file>
@@ -539,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -665,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -712,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -5668,6 +5683,231 @@
         <v>0</v>
       </c>
       <c r="N130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>115</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="4">
+        <v>0</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0</v>
+      </c>
+      <c r="K134" s="4">
+        <v>0</v>
+      </c>
+      <c r="L134" s="4">
+        <v>0</v>
+      </c>
+      <c r="M134" s="4">
+        <v>0</v>
+      </c>
+      <c r="N134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>116</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="4">
+        <v>0</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0</v>
+      </c>
+      <c r="K135" s="4">
+        <v>0</v>
+      </c>
+      <c r="L135" s="4">
+        <v>0</v>
+      </c>
+      <c r="M135" s="4">
+        <v>0</v>
+      </c>
+      <c r="N135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>117</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="4">
+        <v>0</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>0</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0</v>
+      </c>
+      <c r="K136" s="4">
+        <v>0</v>
+      </c>
+      <c r="L136" s="4">
+        <v>0</v>
+      </c>
+      <c r="M136" s="4">
+        <v>0</v>
+      </c>
+      <c r="N136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>118</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="4">
+        <v>0</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>0</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0</v>
+      </c>
+      <c r="K137" s="4">
+        <v>0</v>
+      </c>
+      <c r="L137" s="4">
+        <v>0</v>
+      </c>
+      <c r="M137" s="4">
+        <v>0</v>
+      </c>
+      <c r="N137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>119</v>
+      </c>
+      <c r="B138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" s="4">
+        <v>0</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0</v>
+      </c>
+      <c r="K138" s="4">
+        <v>0</v>
+      </c>
+      <c r="L138" s="4">
+        <v>0</v>
+      </c>
+      <c r="M138" s="4">
+        <v>0</v>
+      </c>
+      <c r="N138" s="4">
         <v>0</v>
       </c>
     </row>
